--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,70 +40,73 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
@@ -112,13 +115,7 @@
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
   </si>
   <si>
     <t>social</t>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,10 +487,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,10 +551,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,13 +572,13 @@
         <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -593,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -619,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -643,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +672,13 @@
         <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -693,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -701,13 +698,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,13 +722,13 @@
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -743,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -751,13 +748,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -769,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.631578947368421</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -793,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -801,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9134615384615384</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -819,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -843,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -851,13 +848,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -869,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K9">
-        <v>0.5517241379310345</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -893,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -901,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.6875</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -919,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.5066666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,13 +972,13 @@
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1001,13 +998,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5882352941176471</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1019,31 +1016,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12">
-        <v>0.04371584699453552</v>
-      </c>
-      <c r="L12">
-        <v>48</v>
-      </c>
-      <c r="M12">
-        <v>48</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1050</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1051,13 +1024,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1069,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1077,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.4710144927536232</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1095,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1103,13 +1076,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4782608695652174</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1121,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1129,13 +1102,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3928571428571428</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1147,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1155,13 +1128,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3191489361702128</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1173,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1181,13 +1154,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2857142857142857</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1199,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1207,13 +1180,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2564102564102564</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1225,33 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
